--- a/Big Tech/Salesforce.xlsx
+++ b/Big Tech/Salesforce.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A16BC-70BD-DE49-83D8-BE5BE1498BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC1D1A-E426-E74A-8E7E-BF537DBBE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28380" yWindow="500" windowWidth="22780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,9 +550,6 @@
   </si>
   <si>
     <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
   </si>
 </sst>
 </file>
@@ -858,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,13 +962,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -967,10 +995,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -999,6 +1023,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,6 +2257,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qc1h&amp;q=XNYS%3aCRM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>SALESFORCE, INC. (XNYS:CRM)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1qc1h</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>221</v>
+    <v>126.34</v>
+    <v>1.2432000000000001</v>
+    <v>3.18</v>
+    <v>1.6174999999999998E-2</v>
+    <v>7.0000000000000007E-2</v>
+    <v>3.5040000000000001E-4</v>
+    <v>USD</v>
+    <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
+    <v>79390</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
+    <v>200</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.999620508592</v>
+    <v>0</v>
+    <v>196.99</v>
+    <v>199780000000</v>
+    <v>SALESFORCE, INC.</v>
+    <v>SALESFORCE, INC.</v>
+    <v>197.49</v>
+    <v>952.93489999999997</v>
+    <v>196.6</v>
+    <v>199.78</v>
+    <v>199.85</v>
+    <v>1000000000</v>
+    <v>CRM</v>
+    <v>SALESFORCE, INC. (XNYS:CRM)</v>
+    <v>6634260</v>
+    <v>9648170</v>
+    <v>1999</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2530,10 +2997,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB34" sqref="AB34"/>
+      <selection pane="bottomRight" activeCell="AB102" sqref="AB102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2544,8 +3011,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>160</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2001</v>
@@ -3936,15 +4403,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>6.5370677940510342</v>
+        <v>7.5411444964517589</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>119.93074792243767</v>
+        <v>138.35180055401662</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>32.780617073632406</v>
+        <v>37.815635055839486</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4162,7 +4629,7 @@
       <c r="W19" s="10">
         <v>4830000000</v>
       </c>
-      <c r="AC19" s="61">
+      <c r="AC19" s="55">
         <f>W40-W56-W61</f>
         <v>-3444000000</v>
       </c>
@@ -8789,10 +9256,10 @@
       <c r="W83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="64" t="s">
+      <c r="AD83" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AE83" s="65"/>
+      <c r="AE83" s="59"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8864,10 +9331,10 @@
       <c r="W84" s="1">
         <v>507000000</v>
       </c>
-      <c r="AD84" s="66" t="s">
+      <c r="AD84" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AE84" s="67"/>
+      <c r="AE84" s="61"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9585,10 +10052,10 @@
       <c r="W93" s="1">
         <v>-717000000</v>
       </c>
-      <c r="AD93" s="66" t="s">
+      <c r="AD93" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="AE93" s="67"/>
+      <c r="AE93" s="61"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9737,11 +10204,12 @@
       <c r="W95" s="1">
         <v>-1357000000</v>
       </c>
-      <c r="AD95" s="37" t="s">
+      <c r="AD95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AE95" s="38">
-        <v>1.19</v>
+      <c r="AE95" s="63" cm="1">
+        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
+        <v>1.2432000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9896,7 +10364,7 @@
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.2179499999999998E-2</v>
+        <v>9.4469760000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9969,10 +10437,10 @@
       <c r="W98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD98" s="66" t="s">
+      <c r="AD98" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="AE98" s="67"/>
+      <c r="AE98" s="61"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10127,7 +10595,7 @@
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>7.4700391641421018E-2</v>
+        <v>6.5404821272355571E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10200,11 +10668,12 @@
       <c r="W101" s="1">
         <v>-33000000</v>
       </c>
-      <c r="AD101" s="37" t="s">
+      <c r="AD101" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AE101" s="39">
-        <v>173180000000</v>
+      <c r="AE101" s="48" cm="1">
+        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
+        <v>199780000000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10282,7 +10751,7 @@
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.92529960835857894</v>
+        <v>0.93459517872764442</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10358,9 +10827,9 @@
       <c r="AD103" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AE103" s="40">
+      <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>187161000000</v>
+        <v>213761000000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10433,10 +10902,10 @@
       <c r="W104" s="11">
         <v>5464000000</v>
       </c>
-      <c r="AD104" s="66" t="s">
+      <c r="AD104" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="AE104" s="67"/>
+      <c r="AE104" s="61"/>
     </row>
     <row r="105" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10538,7 +11007,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>8.529365524868962E-2</v>
+        <v>8.829098223155768E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10611,33 +11080,33 @@
       <c r="W106" s="1">
         <v>5283000000</v>
       </c>
-      <c r="X106" s="41">
+      <c r="X106" s="62">
         <f>W106*(1+$AE$106)</f>
         <v>6129305316.8925457</v>
       </c>
-      <c r="Y106" s="41">
+      <c r="Y106" s="62">
         <f t="shared" ref="Y106:AB106" si="44">X106*(1+$AE$106)</f>
         <v>7111183734.1827049</v>
       </c>
-      <c r="Z106" s="41">
+      <c r="Z106" s="62">
         <f t="shared" si="44"/>
         <v>8250353259.7626047</v>
       </c>
-      <c r="AA106" s="41">
+      <c r="AA106" s="62">
         <f t="shared" si="44"/>
         <v>9572010997.7862339</v>
       </c>
-      <c r="AB106" s="41">
+      <c r="AB106" s="62">
         <f t="shared" si="44"/>
         <v>11105390479.289246</v>
       </c>
-      <c r="AC106" s="42" t="s">
+      <c r="AC106" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="AD106" s="43" t="s">
+      <c r="AD106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AE106" s="44">
+      <c r="AE106" s="40">
         <f>(SUM(X4:AB4)/5)</f>
         <v>0.16019407853351231</v>
       </c>
@@ -10666,138 +11135,139 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="42"/>
-      <c r="AB107" s="45">
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>188793086010.80154</v>
-      </c>
-      <c r="AC107" s="46" t="s">
+        <v>179852244978.99725</v>
+      </c>
+      <c r="AC107" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AD107" s="47" t="s">
+      <c r="AD107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AE107" s="48">
+      <c r="AE107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="45">
+      <c r="X108" s="41">
         <f t="shared" ref="X108:Z108" si="45">X107+X106</f>
         <v>6129305316.8925457</v>
       </c>
-      <c r="Y108" s="45">
+      <c r="Y108" s="41">
         <f t="shared" si="45"/>
         <v>7111183734.1827049</v>
       </c>
-      <c r="Z108" s="45">
+      <c r="Z108" s="41">
         <f t="shared" si="45"/>
         <v>8250353259.7626047</v>
       </c>
-      <c r="AA108" s="45">
+      <c r="AA108" s="41">
         <f>AA107+AA106</f>
         <v>9572010997.7862339</v>
       </c>
-      <c r="AB108" s="45">
+      <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>199898476490.09079</v>
-      </c>
-      <c r="AC108" s="46" t="s">
+        <v>190957635458.2865</v>
+      </c>
+      <c r="AC108" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="AD108" s="49" t="s">
+      <c r="AD108" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AE108" s="50">
+      <c r="AE108" s="46">
         <f>AE105</f>
-        <v>8.529365524868962E-2</v>
+        <v>8.829098223155768E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="62" t="s">
+      <c r="X109" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="Y109" s="63"/>
+      <c r="Y109" s="57"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="51" t="s">
+      <c r="X110" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Y110" s="52">
+      <c r="Y110" s="48">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>157800245899.53</v>
+        <v>149947710329.13657</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="51" t="s">
+      <c r="X111" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="Y111" s="52">
+      <c r="Y111" s="48">
         <f>W40</f>
         <v>10537000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="51" t="s">
+      <c r="X112" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="Y112" s="52">
+      <c r="Y112" s="48">
         <f>AE99</f>
         <v>13981000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="51" t="s">
+      <c r="X113" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="Y113" s="52">
+      <c r="Y113" s="48">
         <f>Y110+Y111-Y112</f>
-        <v>154356245899.53</v>
+        <v>146503710329.13657</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="51" t="s">
+      <c r="X114" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="Y114" s="53">
+      <c r="Y114" s="49">
         <f>W34*(1+(5*AC16))</f>
         <v>1307403073.446146</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="54" t="s">
+      <c r="X115" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="Y115" s="55">
+      <c r="Y115" s="51">
         <f>Y113/Y114</f>
-        <v>118.06324234244518</v>
+        <v>112.05703375239257</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="56" t="s">
+      <c r="X116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="Y116" s="57">
-        <v>173.18</v>
+      <c r="Y116" s="64" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>199.85</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="58" t="s">
+      <c r="X117" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="Y117" s="59">
+      <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.31826283437784286</v>
+        <v>-0.43929430196451047</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="58" t="s">
+      <c r="X118" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="Y118" s="60" t="str">
+      <c r="Y118" s="54" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Big Tech/Salesforce.xlsx
+++ b/Big Tech/Salesforce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC1D1A-E426-E74A-8E7E-BF537DBBE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F2778-1F59-AE45-ADAD-0F6A4ED45FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -994,7 +995,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1005,6 +1005,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,9 +1026,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2377,13 +2378,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>221</v>
+    <v>205.465</v>
     <v>126.34</v>
-    <v>1.2432000000000001</v>
-    <v>3.18</v>
-    <v>1.6174999999999998E-2</v>
-    <v>7.0000000000000007E-2</v>
-    <v>3.5040000000000001E-4</v>
+    <v>1.2465999999999999</v>
+    <v>-2.76</v>
+    <v>-1.4130999999999999E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -2391,25 +2392,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>200</v>
+    <v>194.07</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.999620508592</v>
+    <v>45022.999745671092</v>
     <v>0</v>
-    <v>196.99</v>
-    <v>199780000000</v>
+    <v>189.6</v>
+    <v>192550000000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>197.49</v>
-    <v>952.93489999999997</v>
-    <v>196.6</v>
-    <v>199.78</v>
-    <v>199.85</v>
+    <v>194</v>
+    <v>946.68219999999997</v>
+    <v>195.31</v>
+    <v>192.55</v>
+    <v>192.55</v>
     <v>1000000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>6634260</v>
-    <v>9648170</v>
+    <v>6304734</v>
+    <v>9023086</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2997,10 +2998,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB102" sqref="AB102"/>
+      <selection pane="bottomRight" activeCell="Y115" sqref="Y115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4403,15 +4404,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>7.5411444964517589</v>
+        <v>7.2682319190699083</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>138.35180055401662</v>
+        <v>133.34487534626038</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>37.815635055839486</v>
+        <v>36.447094453908761</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4629,7 +4630,7 @@
       <c r="W19" s="10">
         <v>4830000000</v>
       </c>
-      <c r="AC19" s="55">
+      <c r="AC19" s="54">
         <f>W40-W56-W61</f>
         <v>-3444000000</v>
       </c>
@@ -9256,10 +9257,10 @@
       <c r="W83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="58" t="s">
+      <c r="AD83" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="AE83" s="59"/>
+      <c r="AE83" s="61"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9331,10 +9332,10 @@
       <c r="W84" s="1">
         <v>507000000</v>
       </c>
-      <c r="AD84" s="60" t="s">
+      <c r="AD84" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AE84" s="61"/>
+      <c r="AE84" s="63"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10052,10 +10053,10 @@
       <c r="W93" s="1">
         <v>-717000000</v>
       </c>
-      <c r="AD93" s="60" t="s">
+      <c r="AD93" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="AE93" s="61"/>
+      <c r="AE93" s="63"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10207,9 +10208,9 @@
       <c r="AD95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AE95" s="63" cm="1">
+      <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2432000000000001</v>
+        <v>1.2465999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10364,7 +10365,7 @@
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4469760000000014E-2</v>
+        <v>9.4616130000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10437,10 +10438,10 @@
       <c r="W98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD98" s="60" t="s">
+      <c r="AD98" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="AE98" s="61"/>
+      <c r="AE98" s="63"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10595,7 +10596,7 @@
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>6.5404821272355571E-2</v>
+        <v>6.7694438123090478E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10673,7 +10674,7 @@
       </c>
       <c r="AE101" s="48" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>199780000000</v>
+        <v>192550000000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10751,7 +10752,7 @@
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.93459517872764442</v>
+        <v>0.93230556187690949</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10829,7 +10830,7 @@
       </c>
       <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>213761000000</v>
+        <v>206531000000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10902,10 +10903,10 @@
       <c r="W104" s="11">
         <v>5464000000</v>
       </c>
-      <c r="AD104" s="60" t="s">
+      <c r="AD104" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AE104" s="61"/>
+      <c r="AE104" s="63"/>
     </row>
     <row r="105" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11007,7 +11008,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>8.829098223155768E-2</v>
+        <v>8.8211144242268724E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11080,23 +11081,23 @@
       <c r="W106" s="1">
         <v>5283000000</v>
       </c>
-      <c r="X106" s="62">
+      <c r="X106" s="55">
         <f>W106*(1+$AE$106)</f>
         <v>6129305316.8925457</v>
       </c>
-      <c r="Y106" s="62">
+      <c r="Y106" s="55">
         <f t="shared" ref="Y106:AB106" si="44">X106*(1+$AE$106)</f>
         <v>7111183734.1827049</v>
       </c>
-      <c r="Z106" s="62">
+      <c r="Z106" s="55">
         <f t="shared" si="44"/>
         <v>8250353259.7626047</v>
       </c>
-      <c r="AA106" s="62">
+      <c r="AA106" s="55">
         <f t="shared" si="44"/>
         <v>9572010997.7862339</v>
       </c>
-      <c r="AB106" s="62">
+      <c r="AB106" s="55">
         <f t="shared" si="44"/>
         <v>11105390479.289246</v>
       </c>
@@ -11141,7 +11142,7 @@
       <c r="AA107" s="38"/>
       <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>179852244978.99725</v>
+        <v>180079404948.65692</v>
       </c>
       <c r="AC107" s="42" t="s">
         <v>147</v>
@@ -11172,7 +11173,7 @@
       </c>
       <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>190957635458.2865</v>
+        <v>191184795427.94617</v>
       </c>
       <c r="AC108" s="42" t="s">
         <v>143</v>
@@ -11182,14 +11183,14 @@
       </c>
       <c r="AE108" s="46">
         <f>AE105</f>
-        <v>8.829098223155768E-2</v>
+        <v>8.8211144242268724E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="56" t="s">
+      <c r="X109" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="Y109" s="57"/>
+      <c r="Y109" s="59"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="X110" s="47" t="s">
@@ -11197,7 +11198,7 @@
       </c>
       <c r="Y110" s="48">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>149947710329.13657</v>
+        <v>150147164642.67911</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11224,7 +11225,7 @@
       </c>
       <c r="Y113" s="48">
         <f>Y110+Y111-Y112</f>
-        <v>146503710329.13657</v>
+        <v>146703164642.67911</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11240,34 +11241,34 @@
       <c r="X115" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="Y115" s="51">
+      <c r="Y115" s="64">
         <f>Y113/Y114</f>
-        <v>112.05703375239257</v>
+        <v>112.20959138178287</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
       <c r="X116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="Y116" s="64" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>199.85</v>
+      <c r="Y116" s="57" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price")</f>
+        <v>192.55</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="52" t="s">
+      <c r="X117" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Y117" s="53">
+      <c r="Y117" s="52">
         <f>Y115/Y116-1</f>
-        <v>-0.43929430196451047</v>
+        <v>-0.41724439687466697</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="52" t="s">
+      <c r="X118" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="Y118" s="54" t="str">
+      <c r="Y118" s="53" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
